--- a/Input/GAMMAPA/Database - Pure and Site param.xlsx
+++ b/Input/GAMMAPA/Database - Pure and Site param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lira.EGR\Documents\repos\MDNAproject\Input\GAMMAPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B637A5-7B48-477F-9C28-D053EF1051A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99506E9-EBB2-43AD-B57D-02A90F431058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="713" activeTab="11" xr2:uid="{F5CC7CA9-1E49-41AC-B255-1C67DD959E18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="713" firstSheet="1" activeTab="4" xr2:uid="{F5CC7CA9-1E49-41AC-B255-1C67DD959E18}"/>
   </bookViews>
   <sheets>
     <sheet name="ID ref" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="vdW" sheetId="9" r:id="rId10"/>
     <sheet name="PCSAFT" sheetId="7" r:id="rId11"/>
     <sheet name="NRTL" sheetId="8" r:id="rId12"/>
+    <sheet name="Nagata" sheetId="14" r:id="rId13"/>
+    <sheet name="SH" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="201">
   <si>
     <t>site id</t>
   </si>
@@ -61,9 +63,6 @@
     <t>electron donor/acceptor sites</t>
   </si>
   <si>
-    <t>carboxylic acid</t>
-  </si>
-  <si>
     <t>pair id</t>
   </si>
   <si>
@@ -94,9 +93,6 @@
     <t>b (cm3/mol) ESD</t>
   </si>
   <si>
-    <t>covol (cm3/mol)</t>
-  </si>
-  <si>
     <t>kappa (cm3/mol)</t>
   </si>
   <si>
@@ -334,9 +330,6 @@
     <t>B.D. Marshall, A molecular equation of state for alcohols which includes steric hindrance in hydrogen bonding, J. Chem. Phys. 149 (2018) 044505. https://doi.org/10.1063/1.5041454.</t>
   </si>
   <si>
-    <t>Killian</t>
-  </si>
-  <si>
     <t>10.1021/ie00104a021</t>
   </si>
   <si>
@@ -547,9 +540,6 @@
     <t>hydroxyl_H_EG</t>
   </si>
   <si>
-    <t>water_H_water</t>
-  </si>
-  <si>
     <t>hydroxyl_O_MeOH</t>
   </si>
   <si>
@@ -592,13 +582,73 @@
     <t>hydroxyl_O_2-buOH</t>
   </si>
   <si>
-    <t>acetic acid</t>
-  </si>
-  <si>
     <t>hydroxyl_H_2-buOH</t>
   </si>
   <si>
     <t>These are shown to distinguish the association type. When inserting in the input file, collapse blank cells.</t>
+  </si>
+  <si>
+    <t>Killian, unpublished</t>
+  </si>
+  <si>
+    <t>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</t>
+  </si>
+  <si>
+    <t>b are ESD parms</t>
+  </si>
+  <si>
+    <t>124-18-5</t>
+  </si>
+  <si>
+    <t>n-PENTANE</t>
+  </si>
+  <si>
+    <t>C5H12</t>
+  </si>
+  <si>
+    <t>109-66-0</t>
+  </si>
+  <si>
+    <t>n-DECANE</t>
+  </si>
+  <si>
+    <t>C10H22</t>
+  </si>
+  <si>
+    <t>CPA, 4C water</t>
+  </si>
+  <si>
+    <t>non-assoc</t>
+  </si>
+  <si>
+    <t>This model is symmetrical so only two parameters are fitted per binary</t>
+  </si>
+  <si>
+    <t>gconst, from Aspen files, not published</t>
+  </si>
+  <si>
+    <t>isobutanol</t>
+  </si>
+  <si>
+    <t>t-butanol</t>
+  </si>
+  <si>
+    <t>n-HEXANE</t>
+  </si>
+  <si>
+    <t>C6H14</t>
+  </si>
+  <si>
+    <t>110-54-3</t>
+  </si>
+  <si>
+    <t>acetic_acid</t>
+  </si>
+  <si>
+    <t>carboxylic_acid</t>
+  </si>
+  <si>
+    <t>water_H</t>
   </si>
 </sst>
 </file>
@@ -654,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -662,6 +712,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +745,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1050,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DD9972-15C4-46A5-B32B-8CD2216A78B7}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1061,409 +1114,415 @@
     <col min="4" max="4" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>643</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>109660</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1367</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>142825</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1136</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>124185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>696</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>110543</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>715</v>
+      </c>
+      <c r="B7">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>110827</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>5350</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>1101</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>67561</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5245</v>
+      </c>
+      <c r="B9">
+        <v>1102</v>
+      </c>
+      <c r="C9">
+        <v>64175</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5245</v>
-      </c>
-      <c r="B4">
-        <v>1102</v>
-      </c>
-      <c r="C4">
-        <v>64175</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5514</v>
+      </c>
+      <c r="B10">
+        <v>1103</v>
+      </c>
+      <c r="C10">
+        <v>71238</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5514</v>
-      </c>
-      <c r="B5">
-        <v>1103</v>
-      </c>
-      <c r="C5">
-        <v>71238</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5352</v>
+      </c>
+      <c r="B11">
+        <v>1104</v>
+      </c>
+      <c r="C11">
+        <v>67630</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5352</v>
-      </c>
-      <c r="B6">
-        <v>1104</v>
-      </c>
-      <c r="C6">
-        <v>67630</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5520</v>
+      </c>
+      <c r="B12">
+        <v>1105</v>
+      </c>
+      <c r="C12">
+        <v>71363</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5520</v>
-      </c>
-      <c r="B7">
-        <v>1105</v>
-      </c>
-      <c r="C7">
-        <v>71363</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5892</v>
+      </c>
+      <c r="B13">
+        <v>1106</v>
+      </c>
+      <c r="C13">
+        <v>78831</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5892</v>
-      </c>
-      <c r="B8">
-        <v>1106</v>
-      </c>
-      <c r="C8">
-        <v>78831</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5898</v>
+      </c>
+      <c r="B14">
+        <v>1107</v>
+      </c>
+      <c r="C14">
+        <v>78922</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>5898</v>
-      </c>
-      <c r="B9">
-        <v>1107</v>
-      </c>
-      <c r="C9">
-        <v>78922</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>5673</v>
+      </c>
+      <c r="B15">
+        <v>1108</v>
+      </c>
+      <c r="C15">
+        <v>75650</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5673</v>
-      </c>
-      <c r="B10">
-        <v>1108</v>
-      </c>
-      <c r="C10">
-        <v>75650</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5521</v>
+      </c>
+      <c r="B16">
+        <v>1109</v>
+      </c>
+      <c r="C16">
+        <v>71410</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>5521</v>
-      </c>
-      <c r="B11">
-        <v>1109</v>
-      </c>
-      <c r="C11">
-        <v>71410</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F16" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>4625</v>
-      </c>
-      <c r="B12">
-        <v>1110</v>
-      </c>
-      <c r="C12">
-        <v>6032297</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>5690</v>
-      </c>
-      <c r="B13">
-        <v>1111</v>
-      </c>
-      <c r="C13">
-        <v>75854</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1282</v>
-      </c>
-      <c r="B14">
-        <v>1112</v>
-      </c>
-      <c r="C14">
-        <v>137326</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>5689</v>
-      </c>
-      <c r="B15">
-        <v>1113</v>
-      </c>
-      <c r="C15">
-        <v>75843</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>742</v>
-      </c>
-      <c r="B16">
-        <v>1114</v>
-      </c>
-      <c r="C16">
-        <v>111273</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>715</v>
+        <v>4625</v>
       </c>
       <c r="B17">
-        <v>137</v>
+        <v>1110</v>
       </c>
       <c r="C17">
-        <v>110827</v>
+        <v>6032297</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1367</v>
+        <v>5690</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>1111</v>
       </c>
       <c r="C18">
-        <v>142825</v>
+        <v>75854</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5247</v>
+        <v>1282</v>
       </c>
       <c r="B19">
-        <v>1252</v>
+        <v>1112</v>
       </c>
       <c r="C19">
-        <v>64197</v>
+        <v>137326</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1122</v>
+        <v>5689</v>
       </c>
       <c r="B20">
-        <v>1421</v>
+        <v>1113</v>
       </c>
       <c r="C20">
-        <v>123911</v>
+        <v>75843</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5355</v>
+        <v>742</v>
       </c>
       <c r="B21">
-        <v>1521</v>
+        <v>1114</v>
       </c>
       <c r="C21">
-        <v>67663</v>
+        <v>111273</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1477,80 +1536,145 @@
         <v>107211</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
+        <v>5247</v>
+      </c>
+      <c r="B23">
+        <v>1252</v>
+      </c>
+      <c r="C23">
+        <v>64197</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1122</v>
+      </c>
+      <c r="B24">
+        <v>1421</v>
+      </c>
+      <c r="C24">
+        <v>123911</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>5355</v>
+      </c>
+      <c r="B25">
+        <v>1521</v>
+      </c>
+      <c r="C25">
+        <v>67663</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>5822</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>1921</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>7732185</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
         <v>82</v>
       </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F26">
+    <sortCondition ref="B3:B26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459BD88-E818-403A-9C78-0332BC51A281}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
         <v>121</v>
       </c>
-      <c r="J2" t="s">
-        <v>124</v>
-      </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1592,7 +1716,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K4" t="str">
         <f>_xlfn.XLOOKUP(I4,sources!A$2:A$40,sources!C$2:C$40)</f>
@@ -1627,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K5" t="str">
         <f>_xlfn.XLOOKUP(I5,sources!A$2:A$40,sources!C$2:C$40)</f>
@@ -1639,18 +1763,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.XLOOKUP(vdW!B6,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>1-PROPANOL</v>
+        <v>METHANOL</v>
       </c>
       <c r="D6">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.XLOOKUP(vdW!D6,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>1-PROPANOL</v>
+        <v>ETHANOL</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>100.2</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" t="str">
+        <f>_xlfn.XLOOKUP(I6,sources!A$2:A$40,sources!C$2:C$40)</f>
+        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1658,201 +1798,33 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="str">
         <f>_xlfn.XLOOKUP(vdW!B7,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>1-BUTANOL</v>
+        <v>ETHANOL</v>
       </c>
       <c r="D7">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.XLOOKUP(vdW!D7,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>1-BUTANOL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B8,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>1-PENTANOL</v>
-      </c>
-      <c r="D8">
-        <v>506</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D8,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>1-PENTANOL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B9,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>1-HEXANOL</v>
-      </c>
-      <c r="D9">
-        <v>507</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D9,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>1-HEXANOL</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B10,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>2-METHYL-1-PROPANOL</v>
-      </c>
-      <c r="D10">
-        <v>508</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D10,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>2-METHYL-1-PROPANOL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B11,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>ISOPROPANOL</v>
-      </c>
-      <c r="D11">
-        <v>509</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D11,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>ISOPROPANOL</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B12,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>2-BUTANOL</v>
-      </c>
-      <c r="D12">
-        <v>510</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D12,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>2-BUTANOL</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B13,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>2-METHYL-2-PROPANOL</v>
-      </c>
-      <c r="D13">
-        <v>511</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D13,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>2-METHYL-2-PROPANOL</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B14,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
         <v>METHANOL</v>
       </c>
-      <c r="D14">
-        <v>503</v>
-      </c>
-      <c r="E14" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D14,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>ETHANOL</v>
-      </c>
-      <c r="G14">
-        <v>25</v>
-      </c>
-      <c r="H14">
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
         <v>100.2</v>
       </c>
-      <c r="I14">
+      <c r="I7">
         <v>17</v>
       </c>
-      <c r="J14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" t="str">
-        <f>_xlfn.XLOOKUP(I14,sources!A$2:A$40,sources!C$2:C$40)</f>
-        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="str">
-        <f>_xlfn.XLOOKUP(vdW!B15,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
-        <v>ETHANOL</v>
-      </c>
-      <c r="D15">
-        <v>502</v>
-      </c>
-      <c r="E15" t="str">
-        <f>_xlfn.XLOOKUP(vdW!D15,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
-        <v>METHANOL</v>
-      </c>
-      <c r="G15">
-        <v>35</v>
-      </c>
-      <c r="H15">
-        <v>100.2</v>
-      </c>
-      <c r="I15">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" t="str">
-        <f>_xlfn.XLOOKUP(I15,sources!A$2:A$40,sources!C$2:C$40)</f>
+      <c r="J7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" t="str">
+        <f>_xlfn.XLOOKUP(I7,sources!A$2:A$40,sources!C$2:C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
@@ -1865,42 +1837,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2374B1E-7050-450D-B3AF-CF5254FCED57}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -2962,52 +2936,52 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7C2CD3-168D-4C0B-B145-408BF13C5FA7}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
         <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -3018,14 +2992,14 @@
         <v>715</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!B3,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(B3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>CYCLOHEXANE</v>
       </c>
       <c r="D3">
         <v>5350</v>
       </c>
       <c r="E3" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!D3,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(D3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>METHANOL</v>
       </c>
       <c r="F3">
@@ -3043,14 +3017,14 @@
       <c r="J3">
         <v>0.47</v>
       </c>
-      <c r="K3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3">
+      <c r="K3">
         <v>16</v>
       </c>
+      <c r="L3" t="s">
+        <v>122</v>
+      </c>
       <c r="M3" t="str">
-        <f>_xlfn.XLOOKUP(L3,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <f>_xlfn.XLOOKUP(K3,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark1 - distributed with 2.6.5rel</v>
       </c>
     </row>
@@ -3062,14 +3036,14 @@
         <v>715</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!B4,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(B4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>CYCLOHEXANE</v>
       </c>
       <c r="D4">
         <v>5350</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!D4,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(D4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>METHANOL</v>
       </c>
       <c r="F4">
@@ -3087,14 +3061,14 @@
       <c r="J4">
         <v>0.3</v>
       </c>
-      <c r="K4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4">
+      <c r="K4">
         <v>16</v>
       </c>
+      <c r="L4" t="s">
+        <v>123</v>
+      </c>
       <c r="M4" t="str">
-        <f>_xlfn.XLOOKUP(L4,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <f>_xlfn.XLOOKUP(K4,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark1 - distributed with 2.6.5rel</v>
       </c>
     </row>
@@ -3106,14 +3080,14 @@
         <v>5245</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!B5,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(B5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ETHANOL</v>
       </c>
       <c r="D5">
         <v>5350</v>
       </c>
       <c r="E5" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!D5,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(D5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>METHANOL</v>
       </c>
       <c r="F5">
@@ -3131,14 +3105,14 @@
       <c r="J5">
         <v>0.3</v>
       </c>
-      <c r="K5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5">
+      <c r="K5">
         <v>17</v>
       </c>
+      <c r="L5" t="s">
+        <v>148</v>
+      </c>
       <c r="M5" t="str">
-        <f>_xlfn.XLOOKUP(L5,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <f>_xlfn.XLOOKUP(K5,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
@@ -3150,14 +3124,14 @@
         <v>715</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!B6,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(B6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>CYCLOHEXANE</v>
       </c>
       <c r="D6">
         <v>5350</v>
       </c>
       <c r="E6" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!D6,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(D6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>METHANOL</v>
       </c>
       <c r="F6">
@@ -3175,14 +3149,14 @@
       <c r="J6">
         <v>0.3</v>
       </c>
-      <c r="K6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6">
+      <c r="K6">
         <v>17</v>
       </c>
+      <c r="L6" t="s">
+        <v>149</v>
+      </c>
       <c r="M6" t="str">
-        <f>_xlfn.XLOOKUP(L6,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <f>_xlfn.XLOOKUP(K6,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
@@ -3194,14 +3168,14 @@
         <v>715</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!B7,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(B7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>CYCLOHEXANE</v>
       </c>
       <c r="D7">
         <v>5245</v>
       </c>
       <c r="E7" t="str">
-        <f>_xlfn.XLOOKUP(NRTL!D7,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(D7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ETHANOL</v>
       </c>
       <c r="F7">
@@ -3219,15 +3193,851 @@
       <c r="J7">
         <v>0.3</v>
       </c>
-      <c r="K7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7">
+      <c r="K7">
         <v>17</v>
       </c>
+      <c r="L7" t="s">
+        <v>150</v>
+      </c>
       <c r="M7" t="str">
-        <f>_xlfn.XLOOKUP(L7,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <f>_xlfn.XLOOKUP(K7,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1367</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.XLOOKUP(B8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="D8">
+        <v>5350</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.XLOOKUP(D8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G8">
+        <v>-426</v>
+      </c>
+      <c r="H8">
+        <v>-2.71</v>
+      </c>
+      <c r="I8">
+        <v>1400</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.XLOOKUP(K8,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>643</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.XLOOKUP(B9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-PENTANE</v>
+      </c>
+      <c r="D9">
+        <v>5350</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.XLOOKUP(D9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-225</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>374</v>
+      </c>
+      <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.XLOOKUP(K9,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>715</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.XLOOKUP(B10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D10">
+        <v>5350</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.XLOOKUP(D10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F10">
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="G10">
+        <v>-101</v>
+      </c>
+      <c r="H10">
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="I10">
+        <v>732</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.XLOOKUP(K10,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1136</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.XLOOKUP(B11,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-DECANE</v>
+      </c>
+      <c r="D11">
+        <v>5245</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.XLOOKUP(D11,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="F11">
+        <v>5.56</v>
+      </c>
+      <c r="G11">
+        <v>-1746</v>
+      </c>
+      <c r="H11">
+        <v>-6.61</v>
+      </c>
+      <c r="I11">
+        <v>2170</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.XLOOKUP(K11,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>715</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.XLOOKUP(B12,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D12">
+        <v>5245</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.XLOOKUP(D12,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="F12">
+        <v>-0.52900000000000003</v>
+      </c>
+      <c r="G12">
+        <v>-52.5</v>
+      </c>
+      <c r="H12">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I12">
+        <v>292</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.XLOOKUP(K12,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>715</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.XLOOKUP(B13,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D13">
+        <v>1367</v>
+      </c>
+      <c r="E13" t="str">
+        <f>_xlfn.XLOOKUP(D13,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="F13">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="G13">
+        <v>344</v>
+      </c>
+      <c r="H13">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="I13">
+        <v>-142</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" t="str">
+        <f>_xlfn.XLOOKUP(K13,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5350</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.XLOOKUP(B14,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D14">
+        <v>5822</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.XLOOKUP(D14,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>WATER</v>
+      </c>
+      <c r="F14">
+        <v>12.7</v>
+      </c>
+      <c r="G14">
+        <v>-2881</v>
+      </c>
+      <c r="H14">
+        <v>-4.74</v>
+      </c>
+      <c r="I14">
+        <v>720</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="str">
+        <f>_xlfn.XLOOKUP(K14,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5245</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.XLOOKUP(B15,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="D15">
+        <v>5350</v>
+      </c>
+      <c r="E15" t="str">
+        <f>_xlfn.XLOOKUP(D15,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F15">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G15">
+        <v>-291</v>
+      </c>
+      <c r="H15">
+        <v>-0.86799999999999999</v>
+      </c>
+      <c r="I15">
+        <v>336</v>
+      </c>
+      <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" t="str">
+        <f>_xlfn.XLOOKUP(K15,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>715</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.XLOOKUP(B16,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D16">
+        <v>742</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.XLOOKUP(D16,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>1-HEXANOL</v>
+      </c>
+      <c r="F16">
+        <v>-1.09143382</v>
+      </c>
+      <c r="G16">
+        <v>155.044433</v>
+      </c>
+      <c r="H16">
+        <v>1.5366043</v>
+      </c>
+      <c r="I16">
+        <v>-128.427097</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" t="str">
+        <f>_xlfn.XLOOKUP(K16,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>715</v>
+      </c>
+      <c r="C17" t="str">
+        <f>_xlfn.XLOOKUP(B17,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D17">
+        <v>5520</v>
+      </c>
+      <c r="E17" t="str">
+        <f>_xlfn.XLOOKUP(D17,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>1-BUTANOL</v>
+      </c>
+      <c r="F17">
+        <v>0.87177944900000004</v>
+      </c>
+      <c r="G17">
+        <v>-86.628963600000006</v>
+      </c>
+      <c r="H17">
+        <v>-0.50007144999999997</v>
+      </c>
+      <c r="I17">
+        <v>104.463188</v>
+      </c>
+      <c r="J17">
+        <v>0.3</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" t="str">
+        <f>_xlfn.XLOOKUP(K17,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>715</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.XLOOKUP(B18,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D18">
+        <v>5892</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.XLOOKUP(D18,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>2-METHYL-1-PROPANOL</v>
+      </c>
+      <c r="F18">
+        <v>-0.92758182</v>
+      </c>
+      <c r="G18">
+        <v>67.979759000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.40367709</v>
+      </c>
+      <c r="I18">
+        <v>-41.439945000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.3</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="str">
+        <f>_xlfn.XLOOKUP(K18,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>715</v>
+      </c>
+      <c r="C19" t="str">
+        <f>_xlfn.XLOOKUP(B19,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D19">
+        <v>5673</v>
+      </c>
+      <c r="E19" t="str">
+        <f>_xlfn.XLOOKUP(D19,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>2-METHYL-2-PROPANOL</v>
+      </c>
+      <c r="F19">
+        <v>8.2347231199999996E-2</v>
+      </c>
+      <c r="G19">
+        <v>-253.34676300000001</v>
+      </c>
+      <c r="H19">
+        <v>-0.74724837899999996</v>
+      </c>
+      <c r="I19">
+        <v>644.22338200000002</v>
+      </c>
+      <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="str">
+        <f>_xlfn.XLOOKUP(K19,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>715</v>
+      </c>
+      <c r="C20" t="str">
+        <f>_xlfn.XLOOKUP(B20,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D20">
+        <v>5898</v>
+      </c>
+      <c r="E20" t="str">
+        <f>_xlfn.XLOOKUP(D20,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>2-BUTANOL</v>
+      </c>
+      <c r="F20">
+        <v>-1.3439767899999999</v>
+      </c>
+      <c r="G20">
+        <v>201.404381</v>
+      </c>
+      <c r="H20">
+        <v>1.5824060900000001</v>
+      </c>
+      <c r="I20">
+        <v>-108.052588</v>
+      </c>
+      <c r="J20">
+        <v>0.3</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="str">
+        <f>_xlfn.XLOOKUP(K20,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>715</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_xlfn.XLOOKUP(B21,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D21">
+        <v>5514</v>
+      </c>
+      <c r="E21" t="str">
+        <f>_xlfn.XLOOKUP(D21,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>1-PROPANOL</v>
+      </c>
+      <c r="F21">
+        <v>1.66245201</v>
+      </c>
+      <c r="G21">
+        <v>-501.43369200000001</v>
+      </c>
+      <c r="H21">
+        <v>-1.47175615</v>
+      </c>
+      <c r="I21">
+        <v>566.667056</v>
+      </c>
+      <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="str">
+        <f>_xlfn.XLOOKUP(K21,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>715</v>
+      </c>
+      <c r="C22" t="str">
+        <f>_xlfn.XLOOKUP(B22,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D22">
+        <v>5352</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.XLOOKUP(D22,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ISOPROPANOL</v>
+      </c>
+      <c r="F22">
+        <v>-1.0392355600000001</v>
+      </c>
+      <c r="G22">
+        <v>140.79370399999999</v>
+      </c>
+      <c r="H22">
+        <v>1.3086526000000001</v>
+      </c>
+      <c r="I22">
+        <v>-42.747828300000002</v>
+      </c>
+      <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="str">
+        <f>_xlfn.XLOOKUP(K22,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>715</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.XLOOKUP(B23,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D23">
+        <v>5350</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.XLOOKUP(D23,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F23">
+        <v>0.19731083399999999</v>
+      </c>
+      <c r="G23">
+        <v>-217.989395</v>
+      </c>
+      <c r="H23">
+        <v>-1.79794326</v>
+      </c>
+      <c r="I23">
+        <v>876.16223500000001</v>
+      </c>
+      <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="str">
+        <f>_xlfn.XLOOKUP(K23,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>715</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.XLOOKUP(B24,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D24">
+        <v>5521</v>
+      </c>
+      <c r="E24" t="str">
+        <f>_xlfn.XLOOKUP(D24,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>1-PENTANOL</v>
+      </c>
+      <c r="F24">
+        <v>-1.5063279300000001</v>
+      </c>
+      <c r="G24">
+        <v>455.573306</v>
+      </c>
+      <c r="H24">
+        <v>1.7955572799999999</v>
+      </c>
+      <c r="I24">
+        <v>-439.59340099999997</v>
+      </c>
+      <c r="J24">
+        <v>0.3</v>
+      </c>
+      <c r="K24">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="str">
+        <f>_xlfn.XLOOKUP(K24,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>715</v>
+      </c>
+      <c r="C25" t="str">
+        <f>_xlfn.XLOOKUP(B25,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D25">
+        <v>5245</v>
+      </c>
+      <c r="E25" t="str">
+        <f>_xlfn.XLOOKUP(D25,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="F25">
+        <v>0.32343677100000001</v>
+      </c>
+      <c r="G25">
+        <v>-273.066192</v>
+      </c>
+      <c r="H25">
+        <v>-0.45325498600000003</v>
+      </c>
+      <c r="I25">
+        <v>534.35216700000001</v>
+      </c>
+      <c r="J25">
+        <v>0.3</v>
+      </c>
+      <c r="K25">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="str">
+        <f>_xlfn.XLOOKUP(K25,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>696</v>
+      </c>
+      <c r="C26" t="str">
+        <f>_xlfn.XLOOKUP(B26,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-HEXANE</v>
+      </c>
+      <c r="D26">
+        <v>5350</v>
+      </c>
+      <c r="E26" t="str">
+        <f>_xlfn.XLOOKUP(D26,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F26">
+        <v>-0.75935379000000003</v>
+      </c>
+      <c r="G26">
+        <v>-101.14057099999999</v>
+      </c>
+      <c r="H26">
+        <v>-0.65682622899999998</v>
+      </c>
+      <c r="I26">
+        <v>677.29258500000003</v>
+      </c>
+      <c r="J26">
+        <v>0.3</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="str">
+        <f>_xlfn.XLOOKUP(K26,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
       </c>
     </row>
   </sheetData>
@@ -3236,25 +4046,739 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B1D30A-807E-482D-835A-BEF6111DAD01}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1367</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.XLOOKUP(B3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="D3">
+        <v>5350</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.XLOOKUP(D3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F3">
+        <v>-0.69099999999999995</v>
+      </c>
+      <c r="G3">
+        <v>177</v>
+      </c>
+      <c r="H3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I3">
+        <v>-1532</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" t="str">
+        <f>_xlfn.XLOOKUP(J3,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>643</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.XLOOKUP(B4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-PENTANE</v>
+      </c>
+      <c r="D4">
+        <v>5350</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.XLOOKUP(D4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-22.2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" t="str">
+        <f>_xlfn.XLOOKUP(J4,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>715</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.XLOOKUP(B5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D5">
+        <v>5350</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.XLOOKUP(D5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F5">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="G5">
+        <v>-23.7</v>
+      </c>
+      <c r="H5">
+        <v>1.62</v>
+      </c>
+      <c r="I5">
+        <v>-502</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="str">
+        <f>_xlfn.XLOOKUP(J5,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1136</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.XLOOKUP(B6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-DECANE</v>
+      </c>
+      <c r="D6">
+        <v>5245</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.XLOOKUP(D6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="F6">
+        <v>-1.732</v>
+      </c>
+      <c r="G6">
+        <v>472</v>
+      </c>
+      <c r="H6">
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="I6">
+        <v>-1721</v>
+      </c>
+      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="str">
+        <f>_xlfn.XLOOKUP(J6,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>715</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.XLOOKUP(B7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D7">
+        <v>5245</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.XLOOKUP(D7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="F7">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="G7">
+        <v>16.8</v>
+      </c>
+      <c r="H7">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="I7">
+        <v>-256</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" t="str">
+        <f>_xlfn.XLOOKUP(J7,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>715</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.XLOOKUP(B8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D8">
+        <v>1367</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.XLOOKUP(D8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="F8">
+        <v>0.625</v>
+      </c>
+      <c r="G8">
+        <v>-259</v>
+      </c>
+      <c r="H8">
+        <v>-0.159</v>
+      </c>
+      <c r="I8">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.XLOOKUP(J8,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5350</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.XLOOKUP(B9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D9">
+        <v>5822</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.XLOOKUP(D9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>WATER</v>
+      </c>
+      <c r="F9">
+        <v>1.72</v>
+      </c>
+      <c r="G9">
+        <v>-489</v>
+      </c>
+      <c r="H9">
+        <v>-2.76</v>
+      </c>
+      <c r="I9">
+        <v>1058</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.XLOOKUP(J9,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5245</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.XLOOKUP(B10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="D10">
+        <v>5350</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.XLOOKUP(D10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F10">
+        <v>-0.66</v>
+      </c>
+      <c r="G10">
+        <v>215</v>
+      </c>
+      <c r="H10">
+        <v>1.03</v>
+      </c>
+      <c r="I10">
+        <v>-327</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.XLOOKUP(J10,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5FB215-E344-4BAA-95B7-A5C2EB7CC745}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1367</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.XLOOKUP(B3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="D3">
+        <v>5350</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.XLOOKUP(D3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F3">
+        <v>-5.0500000000000003E-2</v>
+      </c>
+      <c r="G3">
+        <v>24.7</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="str">
+        <f>_xlfn.XLOOKUP(H3,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>643</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.XLOOKUP(B4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-PENTANE</v>
+      </c>
+      <c r="D4">
+        <v>5350</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.XLOOKUP(D4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F4">
+        <v>-0.128</v>
+      </c>
+      <c r="G4">
+        <v>57.7</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xlfn.XLOOKUP(H4,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>715</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.XLOOKUP(B5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D5">
+        <v>5350</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.XLOOKUP(D5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F5">
+        <v>-9.6500000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>46.8</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.XLOOKUP(H5,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1136</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.XLOOKUP(B6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-DECANE</v>
+      </c>
+      <c r="D6">
+        <v>5245</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.XLOOKUP(D6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="F6">
+        <v>-1.54E-2</v>
+      </c>
+      <c r="G6">
+        <v>7.1</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.XLOOKUP(H6,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>715</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.XLOOKUP(B7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D7">
+        <v>5245</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.XLOOKUP(D7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="F7">
+        <v>-1.89E-2</v>
+      </c>
+      <c r="G7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="str">
+        <f>_xlfn.XLOOKUP(H7,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>715</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.XLOOKUP(B8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D8">
+        <v>1367</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.XLOOKUP(D8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="F8">
+        <v>-2.0199999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.41</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" t="str">
+        <f>_xlfn.XLOOKUP(H8,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5350</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.XLOOKUP(B9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D9">
+        <v>5822</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.XLOOKUP(D9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>WATER</v>
+      </c>
+      <c r="F9">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="G9">
+        <v>-26.6</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.XLOOKUP(H9,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5245</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.XLOOKUP(B10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="D10">
+        <v>5350</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.XLOOKUP(D10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="F10">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.28</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="str">
+        <f>_xlfn.XLOOKUP(H10,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0FE22F-0B0A-4C70-A9B8-33323FF15B57}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3262,10 +4786,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3273,10 +4797,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3284,10 +4808,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3295,7 +4819,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3303,10 +4827,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3314,10 +4838,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3325,10 +4849,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3336,10 +4860,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3347,10 +4871,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3358,10 +4882,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3369,10 +4893,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3380,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3388,10 +4912,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3399,10 +4923,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3410,10 +4934,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3421,7 +4945,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3429,7 +4953,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3437,10 +4961,18 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3451,10 +4983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1F51B-B386-419D-A013-864D12BA04CF}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:M22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3462,41 +4994,41 @@
     <col min="3" max="4" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -3505,303 +5037,315 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1122</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.XLOOKUP(B3,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>1,4-DIOXANE</v>
+      </c>
+      <c r="D3">
+        <v>85.663499999999999</v>
+      </c>
+      <c r="E3">
+        <v>70.139799999999994</v>
+      </c>
+      <c r="F3">
+        <v>3.0731700000000002</v>
+      </c>
+      <c r="G3">
+        <v>2.36</v>
+      </c>
+      <c r="H3">
+        <v>2.5762999999999998</v>
+      </c>
+      <c r="I3">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="J3">
+        <v>209.1</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3" t="str">
+        <f>_xlfn.XLOOKUP(L3,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5520</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.XLOOKUP(B4,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>1-BUTANOL</v>
+      </c>
+      <c r="E4">
+        <v>35.762</v>
+      </c>
+      <c r="H4">
+        <v>2.5188000000000001</v>
+      </c>
+      <c r="I4">
+        <v>3.7162000000000002</v>
+      </c>
+      <c r="J4">
+        <v>272.39100000000002</v>
+      </c>
+      <c r="K4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4" t="str">
+        <f>_xlfn.XLOOKUP(L4,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>742</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.XLOOKUP(B5,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>1-HEXANOL</v>
+      </c>
+      <c r="E5">
+        <v>46.45</v>
+      </c>
+      <c r="H5">
+        <v>3.2911999999999999</v>
+      </c>
+      <c r="I5">
+        <v>3.7797999999999998</v>
+      </c>
+      <c r="J5">
+        <v>268.92099999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5" t="str">
+        <f>_xlfn.XLOOKUP(L5,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5521</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.XLOOKUP(B6,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>1-PENTANOL</v>
+      </c>
+      <c r="E6">
+        <v>40.731999999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.9049999999999998</v>
+      </c>
+      <c r="I6">
+        <v>3.7532999999999999</v>
+      </c>
+      <c r="J6">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="K6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6">
+        <v>18</v>
+      </c>
+      <c r="M6" t="str">
+        <f>_xlfn.XLOOKUP(L6,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5514</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.XLOOKUP(B7,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>1-PROPANOL</v>
+      </c>
+      <c r="E7">
+        <v>30.004999999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.1326000000000001</v>
+      </c>
+      <c r="I7">
+        <v>3.6604999999999999</v>
+      </c>
+      <c r="J7">
+        <v>275.28800000000001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+      <c r="M7" t="str">
+        <f>_xlfn.XLOOKUP(L7,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>5247</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.XLOOKUP(B8,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>ACETIC ACID</v>
+      </c>
+      <c r="D8">
+        <v>57.63</v>
+      </c>
+      <c r="E8">
+        <v>46.8</v>
+      </c>
+      <c r="F8">
+        <v>2.1951200000000002</v>
+      </c>
+      <c r="G8">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.3403</v>
+      </c>
+      <c r="I8">
+        <v>3.8580000000000001</v>
+      </c>
+      <c r="J8">
+        <v>211.59</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.XLOOKUP(L8,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5350</v>
-      </c>
-      <c r="C3" t="str">
-        <f>_xlfn.XLOOKUP(B3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>METHANOL</v>
-      </c>
-      <c r="D3">
-        <v>40.335000000000001</v>
-      </c>
-      <c r="E3">
-        <v>19.962</v>
-      </c>
-      <c r="G3">
-        <v>1.4311100000000001</v>
-      </c>
-      <c r="H3">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="I3">
-        <v>1.5255000000000001</v>
-      </c>
-      <c r="J3">
-        <v>3.23</v>
-      </c>
-      <c r="K3">
-        <v>188.9</v>
-      </c>
-      <c r="M3">
+      <c r="B9">
+        <v>5355</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.XLOOKUP(B9,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>CHLOROFORM</v>
+      </c>
+      <c r="D9">
+        <v>80.504800000000003</v>
+      </c>
+      <c r="E9">
+        <v>66.5</v>
+      </c>
+      <c r="F9">
+        <v>2.8675000000000002</v>
+      </c>
+      <c r="G9">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="H9">
+        <v>2.3767</v>
+      </c>
+      <c r="I9">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="J9">
+        <v>278.63</v>
+      </c>
+      <c r="L9">
+        <v>17</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.XLOOKUP(L9,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>715</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.XLOOKUP(B10,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D10">
+        <v>107.69</v>
+      </c>
+      <c r="E10">
+        <v>35.03</v>
+      </c>
+      <c r="F10">
+        <v>4.0475000000000003</v>
+      </c>
+      <c r="G10">
+        <v>3.24</v>
+      </c>
+      <c r="H10">
+        <v>2.5303</v>
+      </c>
+      <c r="I10">
+        <v>3.8498999999999999</v>
+      </c>
+      <c r="J10">
+        <v>278.11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10">
         <v>18</v>
       </c>
-      <c r="N3" t="str">
-        <f>_xlfn.XLOOKUP(M3,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+      <c r="M10" t="str">
+        <f>_xlfn.XLOOKUP(L10,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>5245</v>
-      </c>
-      <c r="C4" t="str">
-        <f>_xlfn.XLOOKUP(B4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>ETHANOL</v>
-      </c>
-      <c r="D4">
-        <v>58.173000000000002</v>
-      </c>
-      <c r="E4">
-        <v>24.742999999999999</v>
-      </c>
-      <c r="G4">
-        <v>2.1055000000000001</v>
-      </c>
-      <c r="H4">
-        <v>1.972</v>
-      </c>
-      <c r="I4">
-        <v>1.7464</v>
-      </c>
-      <c r="J4">
-        <v>3.5670000000000002</v>
-      </c>
-      <c r="K4">
-        <v>280.02999999999997</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4" t="str">
-        <f>_xlfn.XLOOKUP(M4,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5514</v>
-      </c>
-      <c r="C5" t="str">
-        <f>_xlfn.XLOOKUP(B5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>1-PROPANOL</v>
-      </c>
-      <c r="E5">
-        <v>30.004999999999999</v>
-      </c>
-      <c r="I5">
-        <v>2.1326000000000001</v>
-      </c>
-      <c r="J5">
-        <v>3.6604999999999999</v>
-      </c>
-      <c r="K5">
-        <v>275.28800000000001</v>
-      </c>
-      <c r="M5">
-        <v>18</v>
-      </c>
-      <c r="N5" t="str">
-        <f>_xlfn.XLOOKUP(M5,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5520</v>
-      </c>
-      <c r="C6" t="str">
-        <f>_xlfn.XLOOKUP(B6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>1-BUTANOL</v>
-      </c>
-      <c r="E6">
-        <v>35.762</v>
-      </c>
-      <c r="I6">
-        <v>2.5188000000000001</v>
-      </c>
-      <c r="J6">
-        <v>3.7162000000000002</v>
-      </c>
-      <c r="K6">
-        <v>272.39100000000002</v>
-      </c>
-      <c r="M6">
-        <v>18</v>
-      </c>
-      <c r="N6" t="str">
-        <f>_xlfn.XLOOKUP(M6,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5521</v>
-      </c>
-      <c r="C7" t="str">
-        <f>_xlfn.XLOOKUP(B7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>1-PENTANOL</v>
-      </c>
-      <c r="E7">
-        <v>40.731999999999999</v>
-      </c>
-      <c r="I7">
-        <v>2.9049999999999998</v>
-      </c>
-      <c r="J7">
-        <v>3.7532999999999999</v>
-      </c>
-      <c r="K7">
-        <v>270.39999999999998</v>
-      </c>
-      <c r="M7">
-        <v>18</v>
-      </c>
-      <c r="N7" t="str">
-        <f>_xlfn.XLOOKUP(M7,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>742</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.XLOOKUP(B8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>1-HEXANOL</v>
-      </c>
-      <c r="E8">
-        <v>46.45</v>
-      </c>
-      <c r="I8">
-        <v>3.2911999999999999</v>
-      </c>
-      <c r="J8">
-        <v>3.7797999999999998</v>
-      </c>
-      <c r="K8">
-        <v>268.92099999999999</v>
-      </c>
-      <c r="M8">
-        <v>18</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.XLOOKUP(M8,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>715</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.XLOOKUP(B9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>CYCLOHEXANE</v>
-      </c>
-      <c r="D9">
-        <v>107.69</v>
-      </c>
-      <c r="E9">
-        <v>35.03</v>
-      </c>
-      <c r="G9">
-        <v>4.0475000000000003</v>
-      </c>
-      <c r="H9">
-        <v>3.24</v>
-      </c>
-      <c r="I9">
-        <v>2.5303</v>
-      </c>
-      <c r="J9">
-        <v>3.8498999999999999</v>
-      </c>
-      <c r="K9">
-        <v>278.11</v>
-      </c>
-      <c r="M9">
-        <v>18</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.XLOOKUP(M9,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5350</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.XLOOKUP(B10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>METHANOL</v>
-      </c>
-      <c r="D10">
-        <v>40.335000000000001</v>
-      </c>
-      <c r="F10">
-        <v>30.9</v>
-      </c>
-      <c r="G10">
-        <v>1.4311100000000001</v>
-      </c>
-      <c r="H10">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="I10">
-        <v>1.5255000000000001</v>
-      </c>
-      <c r="J10">
-        <v>3.23</v>
-      </c>
-      <c r="K10">
-        <v>188.9</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.XLOOKUP(M10,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>Benchmark1 - distributed with 2.6.5rel</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3809,452 +5353,666 @@
         <v>715</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.XLOOKUP(B11,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(B11,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>CYCLOHEXANE</v>
       </c>
       <c r="D11">
         <v>107.69</v>
       </c>
+      <c r="E11">
+        <v>90.38</v>
+      </c>
       <c r="F11">
-        <v>90.38</v>
+        <v>4.0475000000000003</v>
       </c>
       <c r="G11">
+        <v>3.24</v>
+      </c>
+      <c r="H11">
+        <v>2.5305</v>
+      </c>
+      <c r="I11">
+        <v>3.8498999999999999</v>
+      </c>
+      <c r="J11">
+        <v>278.11</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.XLOOKUP(L11,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Benchmark1 - distributed with 2.6.5rel</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>715</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.XLOOKUP(B12,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>CYCLOHEXANE</v>
+      </c>
+      <c r="D12">
+        <v>107.69</v>
+      </c>
+      <c r="E12">
+        <v>61.4</v>
+      </c>
+      <c r="F12">
         <v>4.0475000000000003</v>
       </c>
-      <c r="H11">
+      <c r="G12">
         <v>3.24</v>
       </c>
-      <c r="I11">
-        <v>2.5305</v>
-      </c>
-      <c r="J11">
-        <v>3.8498999999999999</v>
-      </c>
-      <c r="K11">
-        <v>278.11</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.XLOOKUP(M11,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>Benchmark1 - distributed with 2.6.5rel</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1367</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.XLOOKUP(B12,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>n-HEPTANE</v>
-      </c>
-      <c r="D12">
-        <v>145.988</v>
-      </c>
-      <c r="F12">
-        <v>125.35</v>
-      </c>
-      <c r="G12">
-        <v>5.1740300000000001</v>
-      </c>
-      <c r="H12">
-        <v>4.3959999999999999</v>
-      </c>
-      <c r="I12">
-        <v>3.4830999999999999</v>
-      </c>
-      <c r="J12">
-        <v>3.8048999999999999</v>
-      </c>
-      <c r="K12">
-        <v>238.4</v>
-      </c>
-      <c r="M12">
-        <v>16</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.XLOOKUP(M12,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>Benchmark1 - distributed with 2.6.5rel</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.XLOOKUP(L12,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>5350</v>
+        <v>715</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.XLOOKUP(B13,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>METHANOL</v>
-      </c>
-      <c r="D13">
-        <v>40.335000000000001</v>
-      </c>
-      <c r="F13">
-        <v>21.71</v>
-      </c>
-      <c r="G13">
-        <v>1.4311100000000001</v>
+        <f>_xlfn.XLOOKUP(B13,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>CYCLOHEXANE</v>
       </c>
       <c r="H13">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13" t="str">
-        <f>_xlfn.XLOOKUP(M13,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I13">
+        <v>3.85</v>
+      </c>
+      <c r="J13">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="L13">
+        <v>19</v>
+      </c>
+      <c r="M13" t="str">
+        <f>_xlfn.XLOOKUP(L13,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>5245</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.XLOOKUP(B14,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(B14,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>ETHANOL</v>
       </c>
       <c r="D14">
         <v>58.173000000000002</v>
       </c>
+      <c r="E14">
+        <v>24.742999999999999</v>
+      </c>
       <c r="F14">
+        <v>2.1055000000000001</v>
+      </c>
+      <c r="G14">
+        <v>1.972</v>
+      </c>
+      <c r="H14">
+        <v>1.7464</v>
+      </c>
+      <c r="I14">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="J14">
+        <v>280.02999999999997</v>
+      </c>
+      <c r="K14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+      <c r="M14" t="str">
+        <f>_xlfn.XLOOKUP(L14,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>5245</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.XLOOKUP(B15,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="D15">
+        <v>58.173000000000002</v>
+      </c>
+      <c r="E15">
         <v>31.94</v>
       </c>
-      <c r="G14">
+      <c r="F15">
         <v>2.1055000000000001</v>
       </c>
-      <c r="H14">
+      <c r="G15">
         <v>1.972</v>
       </c>
-      <c r="M14">
+      <c r="K15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15">
         <v>17</v>
       </c>
-      <c r="N14" t="str">
-        <f>_xlfn.XLOOKUP(M14,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+      <c r="M15" t="str">
+        <f>_xlfn.XLOOKUP(L15,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>715</v>
-      </c>
-      <c r="C15" t="str">
-        <f>_xlfn.XLOOKUP(B15,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>CYCLOHEXANE</v>
-      </c>
-      <c r="D15">
-        <v>107.69</v>
-      </c>
-      <c r="F15">
-        <v>61.4</v>
-      </c>
-      <c r="G15">
-        <v>4.0475000000000003</v>
-      </c>
-      <c r="H15">
-        <v>3.24</v>
-      </c>
-      <c r="M15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>5245</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.XLOOKUP(B16,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="H16">
+        <v>2.383</v>
+      </c>
+      <c r="I16">
+        <v>3.177</v>
+      </c>
+      <c r="J16">
+        <v>198.2</v>
+      </c>
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16" t="str">
+        <f>_xlfn.XLOOKUP(L16,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>17</v>
       </c>
-      <c r="N15" t="str">
-        <f>_xlfn.XLOOKUP(M15,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+      <c r="B17">
+        <v>7609</v>
+      </c>
+      <c r="C17" t="str">
+        <f>_xlfn.XLOOKUP(B17,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>ETHYLENE GLYCOL</v>
+      </c>
+      <c r="D17">
+        <v>55.908000000000001</v>
+      </c>
+      <c r="E17">
+        <v>51.4</v>
+      </c>
+      <c r="F17">
+        <v>2.4087000000000001</v>
+      </c>
+      <c r="G17">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="H17">
+        <v>1.9088000000000001</v>
+      </c>
+      <c r="I17">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="J17">
+        <v>325.23</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="M17" t="str">
+        <f>_xlfn.XLOOKUP(L17,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>5355</v>
-      </c>
-      <c r="C16" t="str">
-        <f>_xlfn.XLOOKUP(B16,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>CHLOROFORM</v>
-      </c>
-      <c r="D16">
-        <v>80.504800000000003</v>
-      </c>
-      <c r="F16">
-        <v>66.5</v>
-      </c>
-      <c r="G16">
-        <v>2.8675000000000002</v>
-      </c>
-      <c r="H16">
-        <v>2.4119999999999999</v>
-      </c>
-      <c r="I16">
-        <v>2.3767</v>
-      </c>
-      <c r="J16">
-        <v>3.5409999999999999</v>
-      </c>
-      <c r="K16">
-        <v>278.63</v>
-      </c>
-      <c r="M16">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5350</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.XLOOKUP(B18,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D18">
+        <v>40.335000000000001</v>
+      </c>
+      <c r="E18">
+        <v>19.962</v>
+      </c>
+      <c r="F18">
+        <v>1.4311100000000001</v>
+      </c>
+      <c r="G18">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.5255000000000001</v>
+      </c>
+      <c r="I18">
+        <v>3.23</v>
+      </c>
+      <c r="J18">
+        <v>188.9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18" t="str">
+        <f>_xlfn.XLOOKUP(L18,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>W.G. Killian, A.T. Norfleet, L. Peereboom, C.T. Lira, Fourier Transform Infrared Spectroscopy Applied to Association Modeling of Binary Alcohol + Cyclohexane Mixtures, Ind. Eng. Chem. Res. 62 (2023) 14620–14637. https://doi.org/10.1021/acs.iecr.3c00968.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>5350</v>
+      </c>
+      <c r="C19" t="str">
+        <f>_xlfn.XLOOKUP(B19,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D19">
+        <v>40.335000000000001</v>
+      </c>
+      <c r="E19">
+        <v>30.9</v>
+      </c>
+      <c r="F19">
+        <v>1.4311100000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.5255000000000001</v>
+      </c>
+      <c r="I19">
+        <v>3.23</v>
+      </c>
+      <c r="J19">
+        <v>188.9</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19" t="str">
+        <f>_xlfn.XLOOKUP(L19,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Benchmark1 - distributed with 2.6.5rel</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>5350</v>
+      </c>
+      <c r="C20" t="str">
+        <f>_xlfn.XLOOKUP(B20,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D20">
+        <v>40.335000000000001</v>
+      </c>
+      <c r="E20">
+        <v>21.71</v>
+      </c>
+      <c r="F20">
+        <v>1.4311100000000001</v>
+      </c>
+      <c r="G20">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20">
         <v>17</v>
       </c>
-      <c r="N16" t="str">
-        <f>_xlfn.XLOOKUP(M16,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+      <c r="M20" t="str">
+        <f>_xlfn.XLOOKUP(L20,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>5350</v>
       </c>
-      <c r="C17" t="str">
-        <f>_xlfn.XLOOKUP(B17,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+      <c r="C21" t="str">
+        <f>_xlfn.XLOOKUP(B21,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>METHANOL</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>40.335000000000001</v>
       </c>
-      <c r="F17">
+      <c r="E21">
         <v>30.9</v>
       </c>
-      <c r="G17">
+      <c r="F21">
         <v>1.4311100000000001</v>
       </c>
-      <c r="H17">
+      <c r="G21">
         <v>1.4319999999999999</v>
       </c>
-      <c r="I17">
+      <c r="H21">
         <v>1.5255000000000001</v>
       </c>
-      <c r="J17">
+      <c r="I21">
         <v>3.23</v>
       </c>
-      <c r="K17">
+      <c r="J21">
         <v>188.9</v>
       </c>
-      <c r="M17">
+      <c r="L21">
         <v>17</v>
       </c>
-      <c r="N17" t="str">
-        <f>_xlfn.XLOOKUP(M17,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+      <c r="M21" t="str">
+        <f>_xlfn.XLOOKUP(L21,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5350</v>
+      </c>
+      <c r="C22" t="str">
+        <f>_xlfn.XLOOKUP(B22,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="H22">
+        <v>1.526</v>
+      </c>
+      <c r="I22">
+        <v>3.23</v>
+      </c>
+      <c r="J22">
+        <v>188.9</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22" t="str">
+        <f>_xlfn.XLOOKUP(L22,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1136</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.XLOOKUP(B23,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>n-DECANE</v>
+      </c>
+      <c r="H23">
+        <v>4.6630000000000003</v>
+      </c>
+      <c r="I23">
+        <v>3.8380000000000001</v>
+      </c>
+      <c r="J23">
+        <v>243.9</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23" t="str">
+        <f>_xlfn.XLOOKUP(L23,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>1367</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.XLOOKUP(B24,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="D24">
+        <v>145.988</v>
+      </c>
+      <c r="E24">
+        <v>125.35</v>
+      </c>
+      <c r="F24">
+        <v>5.1740300000000001</v>
+      </c>
+      <c r="G24">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="H24">
+        <v>3.4830999999999999</v>
+      </c>
+      <c r="I24">
+        <v>3.8048999999999999</v>
+      </c>
+      <c r="J24">
+        <v>238.4</v>
+      </c>
+      <c r="L24">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>5247</v>
-      </c>
-      <c r="C18" t="str">
-        <f>_xlfn.XLOOKUP(B18,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>ACETIC ACID</v>
-      </c>
-      <c r="D18">
-        <v>57.63</v>
-      </c>
-      <c r="F18">
-        <v>46.8</v>
-      </c>
-      <c r="G18">
-        <v>2.1951200000000002</v>
-      </c>
-      <c r="H18">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="I18">
-        <v>1.3403</v>
-      </c>
-      <c r="J18">
-        <v>3.8580000000000001</v>
-      </c>
-      <c r="K18">
-        <v>211.59</v>
-      </c>
-      <c r="M18">
+      <c r="M24" t="str">
+        <f>_xlfn.XLOOKUP(L24,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Benchmark1 - distributed with 2.6.5rel</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>1367</v>
+      </c>
+      <c r="C25" t="str">
+        <f>_xlfn.XLOOKUP(B25,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="D25">
+        <v>145.988</v>
+      </c>
+      <c r="E25">
+        <v>125.35</v>
+      </c>
+      <c r="F25">
+        <v>5.1740300000000001</v>
+      </c>
+      <c r="G25">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="H25">
+        <v>3.4830999999999999</v>
+      </c>
+      <c r="I25">
+        <v>3.8048999999999999</v>
+      </c>
+      <c r="J25">
+        <v>238.4</v>
+      </c>
+      <c r="L25">
         <v>17</v>
       </c>
-      <c r="N18" t="str">
-        <f>_xlfn.XLOOKUP(M18,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+      <c r="M25" t="str">
+        <f>_xlfn.XLOOKUP(L25,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1367</v>
+      </c>
+      <c r="C26" t="str">
+        <f>_xlfn.XLOOKUP(B26,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>n-HEPTANE</v>
+      </c>
+      <c r="H26">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="I26">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="J26">
+        <v>238.4</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26" t="str">
+        <f>_xlfn.XLOOKUP(L26,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>643</v>
+      </c>
+      <c r="C27" t="str">
+        <f>_xlfn.XLOOKUP(B27,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>n-PENTANE</v>
+      </c>
+      <c r="H27">
+        <v>2.69</v>
+      </c>
+      <c r="I27">
+        <v>3.7730000000000001</v>
+      </c>
+      <c r="J27">
+        <v>231.2</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27" t="str">
+        <f>_xlfn.XLOOKUP(L27,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>5822</v>
+      </c>
+      <c r="C28" t="str">
+        <f>_xlfn.XLOOKUP(B28,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
+        <v>WATER</v>
+      </c>
+      <c r="D28">
+        <v>18.05</v>
+      </c>
+      <c r="E28">
+        <v>14.5</v>
+      </c>
+      <c r="F28">
+        <v>0.92</v>
+      </c>
+      <c r="G28">
+        <v>1.4</v>
+      </c>
+      <c r="H28">
+        <v>1.0656000000000001</v>
+      </c>
+      <c r="I28">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="J28">
+        <v>366.51</v>
+      </c>
+      <c r="L28">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>7609</v>
-      </c>
-      <c r="C19" t="str">
-        <f>_xlfn.XLOOKUP(B19,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>ETHYLENE GLYCOL</v>
-      </c>
-      <c r="D19">
-        <v>55.908000000000001</v>
-      </c>
-      <c r="F19">
-        <v>51.4</v>
-      </c>
-      <c r="G19">
-        <v>2.4087000000000001</v>
-      </c>
-      <c r="H19">
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="I19">
-        <v>1.9088000000000001</v>
-      </c>
-      <c r="J19">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="K19">
-        <v>325.23</v>
-      </c>
-      <c r="M19">
-        <v>17</v>
-      </c>
-      <c r="N19" t="str">
-        <f>_xlfn.XLOOKUP(M19,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+      <c r="M28" t="str">
+        <f>_xlfn.XLOOKUP(L28,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
         <v>5822</v>
       </c>
-      <c r="C20" t="str">
-        <f>_xlfn.XLOOKUP(B20,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+      <c r="C29" t="str">
+        <f>_xlfn.XLOOKUP(B29,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>WATER</v>
       </c>
-      <c r="D20">
-        <v>18.05</v>
-      </c>
-      <c r="F20">
-        <v>14.5</v>
-      </c>
-      <c r="G20">
-        <v>0.92</v>
-      </c>
-      <c r="H20">
-        <v>1.4</v>
-      </c>
-      <c r="I20">
-        <v>1.0656000000000001</v>
-      </c>
-      <c r="J20">
+      <c r="H29">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="I29">
         <v>3.0009999999999999</v>
       </c>
-      <c r="K20">
-        <v>366.51</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20" t="str">
-        <f>_xlfn.XLOOKUP(M20,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="J29">
+        <v>366.5</v>
+      </c>
+      <c r="L29">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1367</v>
-      </c>
-      <c r="C21" t="str">
-        <f>_xlfn.XLOOKUP(B21,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>n-HEPTANE</v>
-      </c>
-      <c r="D21">
-        <v>145.988</v>
-      </c>
-      <c r="F21">
-        <v>125.35</v>
-      </c>
-      <c r="G21">
-        <v>5.1740300000000001</v>
-      </c>
-      <c r="H21">
-        <v>4.3959999999999999</v>
-      </c>
-      <c r="I21">
-        <v>3.4830999999999999</v>
-      </c>
-      <c r="J21">
-        <v>3.8048999999999999</v>
-      </c>
-      <c r="K21">
-        <v>238.4</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21" t="str">
-        <f>_xlfn.XLOOKUP(M21,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1122</v>
-      </c>
-      <c r="C22" t="str">
-        <f>_xlfn.XLOOKUP(B22,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
-        <v>1,4-DIOXANE</v>
-      </c>
-      <c r="D22">
-        <v>85.663499999999999</v>
-      </c>
-      <c r="F22">
-        <v>70.139799999999994</v>
-      </c>
-      <c r="G22">
-        <v>3.0731700000000002</v>
-      </c>
-      <c r="H22">
-        <v>2.36</v>
-      </c>
-      <c r="I22">
-        <v>2.5762999999999998</v>
-      </c>
-      <c r="J22">
-        <v>3.5249999999999999</v>
-      </c>
-      <c r="K22">
-        <v>209.1</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22" t="str">
-        <f>_xlfn.XLOOKUP(M22,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
-        <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
+      <c r="M29" t="str">
+        <f>_xlfn.XLOOKUP(L29,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M29">
+    <sortCondition ref="C3:C29"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4272,34 +6030,34 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>140</v>
-      </c>
-      <c r="H2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" t="s">
-        <v>143</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -4309,7 +6067,7 @@
         <v>5350</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.XLOOKUP(A3,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A3,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>METHANOL</v>
       </c>
       <c r="C3">
@@ -4343,7 +6101,7 @@
         <v>715</v>
       </c>
       <c r="B4" t="str">
-        <f>_xlfn.XLOOKUP(A4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A4,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>CYCLOHEXANE</v>
       </c>
       <c r="C4">
@@ -4376,7 +6134,7 @@
         <v>5245</v>
       </c>
       <c r="B5" t="str">
-        <f>_xlfn.XLOOKUP(A5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A5,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>ETHANOL</v>
       </c>
       <c r="C5">
@@ -4409,7 +6167,7 @@
         <v>1122</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.XLOOKUP(A6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A6,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>1,4-DIOXANE</v>
       </c>
       <c r="C6">
@@ -4442,7 +6200,7 @@
         <v>5355</v>
       </c>
       <c r="B7" t="str">
-        <f>_xlfn.XLOOKUP(A7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A7,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>CHLOROFORM</v>
       </c>
       <c r="C7">
@@ -4475,7 +6233,7 @@
         <v>5247</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.XLOOKUP(A8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A8,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>ACETIC ACID</v>
       </c>
       <c r="C8">
@@ -4508,7 +6266,7 @@
         <v>1367</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.XLOOKUP(A9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A9,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>n-HEPTANE</v>
       </c>
       <c r="C9">
@@ -4541,7 +6299,7 @@
         <v>7609</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.XLOOKUP(A10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A10,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>ETHYLENE GLYCOL</v>
       </c>
       <c r="C10">
@@ -4574,7 +6332,7 @@
         <v>5822</v>
       </c>
       <c r="B11" t="str">
-        <f>_xlfn.XLOOKUP(A11,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
+        <f>_xlfn.XLOOKUP(A11,'ID ref'!$A$3:$A$502,'ID ref'!$D$3:$D$502)</f>
         <v>WATER</v>
       </c>
       <c r="C11">
@@ -4620,8 +6378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708CC2DA-FA8E-4ADC-8122-B7F2423F8975}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4648,16 +6406,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -4665,10 +6423,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4679,13 +6437,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>5350</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.XLOOKUP(C4,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>METHANOL</v>
       </c>
       <c r="E4">
@@ -4697,13 +6455,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>5245</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.XLOOKUP(C5,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ETHANOL</v>
       </c>
       <c r="E5">
@@ -4715,13 +6473,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6">
         <v>5514</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.XLOOKUP(C6,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-PROPANOL</v>
       </c>
       <c r="E6">
@@ -4733,13 +6491,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <v>5520</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.XLOOKUP(C7,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-BUTANOL</v>
       </c>
       <c r="E7">
@@ -4751,13 +6509,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C8">
         <v>5521</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.XLOOKUP(C8,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-PENTANOL</v>
       </c>
       <c r="E8">
@@ -4769,13 +6527,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C9">
         <v>742</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.XLOOKUP(C9,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-HEXANOL</v>
       </c>
       <c r="E9">
@@ -4787,13 +6545,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10">
         <v>5892</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.XLOOKUP(C10,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>2-METHYL-1-PROPANOL</v>
       </c>
       <c r="E10">
@@ -4805,13 +6563,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C11">
         <v>5352</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.XLOOKUP(C11,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C11,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ISOPROPANOL</v>
       </c>
       <c r="E11">
@@ -4823,13 +6581,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C12">
         <v>5898</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.XLOOKUP(C12,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C12,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>2-BUTANOL</v>
       </c>
       <c r="E12">
@@ -4841,13 +6599,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>5673</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.XLOOKUP(C13,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C13,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>2-METHYL-2-PROPANOL</v>
       </c>
       <c r="E13">
@@ -4859,13 +6617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C14">
         <v>1122</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.XLOOKUP(C14,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C14,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1,4-DIOXANE</v>
       </c>
       <c r="E14">
@@ -4877,13 +6635,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15">
         <v>7609</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.XLOOKUP(C15,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C15,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ETHYLENE GLYCOL</v>
       </c>
       <c r="E15">
@@ -4895,13 +6653,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C16">
         <v>5822</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.XLOOKUP(C16,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C16,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>WATER</v>
       </c>
       <c r="E16">
@@ -4918,7 +6676,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4945,16 +6703,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -4962,10 +6720,10 @@
         <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4976,13 +6734,13 @@
         <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>5350</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.XLOOKUP(C4,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>METHANOL</v>
       </c>
       <c r="E4">
@@ -4994,13 +6752,13 @@
         <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>5245</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.XLOOKUP(C5,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C5,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ETHANOL</v>
       </c>
       <c r="E5">
@@ -5012,13 +6770,13 @@
         <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>5514</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.XLOOKUP(C6,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C6,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-PROPANOL</v>
       </c>
       <c r="E6">
@@ -5030,13 +6788,13 @@
         <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>5520</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.XLOOKUP(C7,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C7,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-BUTANOL</v>
       </c>
       <c r="E7">
@@ -5048,13 +6806,13 @@
         <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>5521</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.XLOOKUP(C8,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C8,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-PENTANOL</v>
       </c>
       <c r="E8">
@@ -5066,13 +6824,13 @@
         <v>507</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>742</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.XLOOKUP(C9,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C9,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>1-HEXANOL</v>
       </c>
       <c r="E9">
@@ -5084,13 +6842,13 @@
         <v>508</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10">
         <v>5892</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.XLOOKUP(C10,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C10,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>2-METHYL-1-PROPANOL</v>
       </c>
       <c r="E10">
@@ -5102,13 +6860,13 @@
         <v>509</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>5352</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.XLOOKUP(C11,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C11,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ISOPROPANOL</v>
       </c>
       <c r="E11">
@@ -5120,13 +6878,13 @@
         <v>510</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>5898</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.XLOOKUP(C12,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C12,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>2-BUTANOL</v>
       </c>
       <c r="E12">
@@ -5138,13 +6896,13 @@
         <v>511</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C13">
         <v>5673</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.XLOOKUP(C13,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C13,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>2-METHYL-2-PROPANOL</v>
       </c>
       <c r="E13">
@@ -5156,13 +6914,13 @@
         <v>512</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14">
         <v>5355</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.XLOOKUP(C14,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C14,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>CHLOROFORM</v>
       </c>
       <c r="E14">
@@ -5174,13 +6932,13 @@
         <v>513</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15">
         <v>7609</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.XLOOKUP(C15,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C15,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ETHYLENE GLYCOL</v>
       </c>
       <c r="E15">
@@ -5192,13 +6950,13 @@
         <v>514</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C16">
         <v>5822</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.XLOOKUP(C16,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C16,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>WATER</v>
       </c>
       <c r="E16">
@@ -5215,7 +6973,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5242,16 +7000,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -5259,10 +7017,10 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -5270,13 +7028,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>5247</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.XLOOKUP(C4,'ID ref'!$A$3:$A$500,'ID ref'!$D$3:$D$500)</f>
+        <f>_xlfn.XLOOKUP(C4,'ID ref'!$A$3:$A$501,'ID ref'!$D$3:$D$501)</f>
         <v>ACETIC ACID</v>
       </c>
       <c r="E4">
@@ -5302,33 +7060,33 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -5670,47 +7428,49 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CBBE5A-E8DE-4E54-B78F-49BA95C635AD}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
         <v>121</v>
       </c>
-      <c r="M2" t="s">
-        <v>124</v>
-      </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -6725,6 +8485,321 @@
       <c r="N38" t="str">
         <f>_xlfn.XLOOKUP(L38,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
         <v>Benchmark2 - internal test document, random (unrealistic) parameter values to test code</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <f>_xlfn.XLOOKUP(B39,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D39">
+        <v>502</v>
+      </c>
+      <c r="E39" t="str">
+        <f>_xlfn.XLOOKUP(D39,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="J39">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="K39">
+        <v>2459.1</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" t="str">
+        <f>_xlfn.XLOOKUP(L39,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="str">
+        <f>_xlfn.XLOOKUP(B40,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="D40">
+        <v>503</v>
+      </c>
+      <c r="E40" t="str">
+        <f>_xlfn.XLOOKUP(D40,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="J40">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="K40">
+        <v>2153.1999999999998</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" t="str">
+        <f>_xlfn.XLOOKUP(L40,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41" t="str">
+        <f>_xlfn.XLOOKUP(B41,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>WATER</v>
+      </c>
+      <c r="D41">
+        <v>514</v>
+      </c>
+      <c r="E41" t="str">
+        <f>_xlfn.XLOOKUP(D41,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>WATER</v>
+      </c>
+      <c r="J41">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="K41">
+        <v>1665.5</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>189</v>
+      </c>
+      <c r="N41" t="str">
+        <f>_xlfn.XLOOKUP(L41,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <f>_xlfn.XLOOKUP(B42,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D42">
+        <v>503</v>
+      </c>
+      <c r="E42" t="str">
+        <f>_xlfn.XLOOKUP(D42,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="J42">
+        <v>0.44259999999999999</v>
+      </c>
+      <c r="K42">
+        <v>2306.1999999999998</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42" t="s">
+        <v>122</v>
+      </c>
+      <c r="N42" t="str">
+        <f>_xlfn.XLOOKUP(L42,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="str">
+        <f>_xlfn.XLOOKUP(B43,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="D43">
+        <v>502</v>
+      </c>
+      <c r="E43" t="str">
+        <f>_xlfn.XLOOKUP(D43,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="J43">
+        <v>0.44259999999999999</v>
+      </c>
+      <c r="K43">
+        <v>2306.1999999999998</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" t="str">
+        <f>_xlfn.XLOOKUP(L43,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <f>_xlfn.XLOOKUP(B44,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="D44">
+        <v>514</v>
+      </c>
+      <c r="E44" t="str">
+        <f>_xlfn.XLOOKUP(D44,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>WATER</v>
+      </c>
+      <c r="J44">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="K44">
+        <v>2062.3000000000002</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44" t="s">
+        <v>189</v>
+      </c>
+      <c r="N44" t="str">
+        <f>_xlfn.XLOOKUP(L44,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45" t="str">
+        <f>_xlfn.XLOOKUP(B45,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>WATER</v>
+      </c>
+      <c r="D45">
+        <v>502</v>
+      </c>
+      <c r="E45" t="str">
+        <f>_xlfn.XLOOKUP(D45,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>METHANOL</v>
+      </c>
+      <c r="J45">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="K45">
+        <v>2062.3000000000002</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N45" t="str">
+        <f>_xlfn.XLOOKUP(L45,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="str">
+        <f>_xlfn.XLOOKUP(B46,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="D46">
+        <v>514</v>
+      </c>
+      <c r="E46" t="str">
+        <f>_xlfn.XLOOKUP(D46,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>WATER</v>
+      </c>
+      <c r="J46">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="K46">
+        <v>1909.3</v>
+      </c>
+      <c r="L46">
+        <v>19</v>
+      </c>
+      <c r="M46" t="s">
+        <v>189</v>
+      </c>
+      <c r="N46" t="str">
+        <f>_xlfn.XLOOKUP(L46,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47" t="str">
+        <f>_xlfn.XLOOKUP(B47,ed!$A$2:$A$500,ed!$D$2:$D$500)</f>
+        <v>WATER</v>
+      </c>
+      <c r="D47">
+        <v>503</v>
+      </c>
+      <c r="E47" t="str">
+        <f>_xlfn.XLOOKUP(D47,ea!$A$2:$A$500,ea!$D$2:$D$500)</f>
+        <v>ETHANOL</v>
+      </c>
+      <c r="J47">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="K47">
+        <v>1909.3</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47" t="s">
+        <v>189</v>
+      </c>
+      <c r="N47" t="str">
+        <f>_xlfn.XLOOKUP(L47,sources!$A$2:$A$40,sources!$C$2:$C$40)</f>
+        <v>Bala Ahmed, A. M. Fundamental Studies and Engineering Modeling of Hydrogen Bonding. Ph.D. Thesis, Michigan State University, East Lansing, MI, 2018.</v>
       </c>
     </row>
   </sheetData>
